--- a/Burndown Chart Sprint 1.xlsx
+++ b/Burndown Chart Sprint 1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Documents\GitHub\SaveTheWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E83B09-BDD9-4B76-BFF1-94741CC4D578}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9D5F6A-F267-42B2-8765-7463474C2AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CE30A7DE-2A8D-409E-8E48-71CE7DD8FD12}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{CE30A7DE-2A8D-409E-8E48-71CE7DD8FD12}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t xml:space="preserve">Day 1 </t>
   </si>
@@ -124,7 +125,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,7 +143,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="cs-CZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -624,6 +625,432 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>Sprint 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual streamline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32FB-4EEA-8921-2F318B39B016}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desired streamline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32FB-4EEA-8921-2F318B39B016}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1609892447"/>
+        <c:axId val="1604067375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1609892447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604067375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1604067375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1609892447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -664,7 +1091,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1221,8 +2204,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601436</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601436</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9382B5-95FC-45D8-AFD9-6002261D49D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1520,19 +2544,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F43EEC3-5B81-4898-999A-FA2117FE2DAF}">
   <dimension ref="A2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.15234375" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +2585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1593,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1625,61 +2649,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F37" s="2"/>
     </row>
   </sheetData>
@@ -1687,4 +2711,71 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EC2EFD-9A51-42D6-B811-289FB576E00E}">
+  <dimension ref="B5:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="17.3046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Burndown Chart Sprint 1.xlsx
+++ b/Burndown Chart Sprint 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankalasnikov/Documents/GitHub/SaveTheWorld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E83B09-BDD9-4B76-BFF1-94741CC4D578}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB6917F-69E4-A046-8BBC-3145EE1451C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CE30A7DE-2A8D-409E-8E48-71CE7DD8FD12}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{CE30A7DE-2A8D-409E-8E48-71CE7DD8FD12}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Day 1 </t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Actual streamline</t>
+  </si>
+  <si>
+    <t>Day 0</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -124,7 +133,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,7 +151,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="cs-CZ"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -204,7 +213,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -242,7 +251,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>List1!$B$2:$J$2</c:f>
+              <c:f>List1!$C$2:$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -277,7 +286,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$B$3:$J$3</c:f>
+              <c:f>List1!$C$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -346,7 +355,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>List1!$B$2:$J$2</c:f>
+              <c:f>List1!$C$2:$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -381,7 +390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$B$4:$J$4</c:f>
+              <c:f>List1!$C$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -475,7 +484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470541792"/>
@@ -534,7 +543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470546384"/>
@@ -576,7 +585,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -613,12 +622,462 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$G$14:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA09-0A40-8CD9-55DC835018BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$H$14:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA09-0A40-8CD9-55DC835018BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="933554047"/>
+        <c:axId val="933268335"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="933554047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933268335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="933268335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933554047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -664,6 +1123,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1180,20 +1679,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>96837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>987425</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>173037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1218,11 +2233,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>498679</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398477</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165682</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5A4241-0D89-CD42-A4F6-A867666AAB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1518,169 +2569,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F43EEC3-5B81-4898-999A-FA2117FE2DAF}">
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="1" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>140</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>130</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>115</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>80</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>50</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>140</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>120</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>80</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>64</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>48</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>32</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>58</v>
+      </c>
+      <c r="H14">
+        <v>58</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f>F15*6.4</f>
+        <v>6.4</v>
+      </c>
+      <c r="H15">
+        <v>44</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G23" si="0">F16*6.4</f>
+        <v>12.8</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>19.200000000000003</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>38.400000000000006</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>44.800000000000004</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>51.2</v>
+      </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>57.6</v>
+      </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="2"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
